--- a/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
+++ b/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
@@ -994,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,8 +1333,8 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>118</v>
@@ -1943,7 +1943,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>147</v>

--- a/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
+++ b/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
@@ -1333,8 +1333,8 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,7 @@
         <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1411,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1425,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
@@ -1453,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>113</v>
@@ -1481,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>114</v>
@@ -1495,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
@@ -1509,7 +1509,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>118</v>
@@ -1551,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>119</v>
@@ -1565,7 +1565,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>120</v>
@@ -1579,7 +1579,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -1593,7 +1593,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>122</v>
@@ -1607,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -1635,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -1649,7 +1649,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>126</v>
@@ -1663,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>127</v>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -1691,7 +1691,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
@@ -1705,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>130</v>
@@ -1719,7 +1719,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>131</v>
@@ -1733,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>132</v>
@@ -1747,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>133</v>
@@ -1761,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
@@ -1775,7 +1775,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>135</v>
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>136</v>
@@ -1803,7 +1803,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>137</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
@@ -1831,7 +1831,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
@@ -1845,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>140</v>
@@ -1873,7 +1873,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>142</v>
@@ -1887,7 +1887,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>143</v>
@@ -1901,7 +1901,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>144</v>
@@ -1915,7 +1915,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
@@ -1929,7 +1929,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
@@ -1943,7 +1943,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
         <v>147</v>
@@ -1957,7 +1957,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>148</v>
@@ -1971,7 +1971,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>149</v>
@@ -1985,7 +1985,7 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>150</v>
@@ -2013,7 +2013,7 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>152</v>
@@ -2027,7 +2027,7 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -2041,7 +2041,7 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>154</v>
@@ -2055,7 +2055,7 @@
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
@@ -2069,7 +2069,7 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>156</v>
@@ -2083,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>157</v>
@@ -2111,7 +2111,7 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2125,7 +2125,7 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>160</v>
@@ -2139,7 +2139,7 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>161</v>
@@ -2153,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>162</v>
@@ -2167,7 +2167,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>163</v>
@@ -2181,7 +2181,7 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>164</v>
@@ -2195,7 +2195,7 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -2209,7 +2209,7 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D62" t="s">
         <v>166</v>
@@ -2223,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>167</v>
@@ -2237,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -2251,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>169</v>
@@ -2279,7 +2279,7 @@
         <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>171</v>
@@ -2293,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>172</v>
@@ -2307,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>173</v>
@@ -2321,7 +2321,7 @@
         <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>174</v>
@@ -2335,7 +2335,7 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>175</v>
@@ -2349,7 +2349,7 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>176</v>
@@ -2363,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>177</v>
@@ -2377,7 +2377,7 @@
         <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>178</v>
@@ -2391,7 +2391,7 @@
         <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>179</v>
@@ -2405,7 +2405,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>180</v>
@@ -2419,7 +2419,7 @@
         <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
         <v>181</v>
@@ -2433,7 +2433,7 @@
         <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>182</v>
@@ -2447,7 +2447,7 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>183</v>
@@ -2461,7 +2461,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>184</v>
@@ -2475,7 +2475,7 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>185</v>
@@ -2489,7 +2489,7 @@
         <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>186</v>
@@ -2503,7 +2503,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>187</v>
@@ -2517,7 +2517,7 @@
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>188</v>
@@ -2531,7 +2531,7 @@
         <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>189</v>
@@ -2587,7 +2587,7 @@
         <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
         <v>193</v>
@@ -2601,7 +2601,7 @@
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
         <v>194</v>
@@ -2615,7 +2615,7 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>195</v>
@@ -2629,7 +2629,7 @@
         <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>196</v>

--- a/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
+++ b/src/main/java/ccpa/testdata/TestDataCCPA2.xlsx
@@ -994,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,8 +1333,8 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2573,7 @@
         <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>192</v>
